--- a/Documentação/Planilhas/20151124_Confere/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/20151124_Confere/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="992"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="992" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="534">
   <si>
     <t>1</t>
   </si>
@@ -589,9 +589,6 @@
     <t>Pegar a informação do Lote de Cobrança no cabeçalho da tela</t>
   </si>
   <si>
-    <t>Detalhar a linha apresentada. Na aba  "Diversos",  seção "Detalhes EBF", pegar a informação de "Código da Ocorrência"</t>
-  </si>
-  <si>
     <t>Sessão "tfcmgl504m00l" (Documentos Saídas - EBF)</t>
   </si>
   <si>
@@ -1021,12 +1018,6 @@
   </si>
   <si>
     <t>RB33887</t>
-  </si>
-  <si>
-    <t>?? - Não bate com o campo extraído pela view</t>
-  </si>
-  <si>
-    <t>Não acho esse campo na tela</t>
   </si>
   <si>
     <t>NR_RETORNO</t>
@@ -1715,6 +1706,18 @@
   </si>
   <si>
     <t>stg_car_remessa_cobranca_eletronica</t>
+  </si>
+  <si>
+    <t>Pelo Menu: Finanças ==&gt; Gestão em Banco ==&gt; Cobranças ==&gt; Cobrança Escritural ==&gt;  Relatórios ==&gt; Imprimir Documentos de Saídas EBF</t>
+  </si>
+  <si>
+    <t>Informar o Tipo de Transação e o Nr. Fatura. Deixar a data da última alteração em branco. Pedir a apresentação do relatório na tela.  Pegar a informação do Cód Ocorrência [última coluna da esquerda do relatório]</t>
+  </si>
+  <si>
+    <t>Informar o Tipo de Transação e o Nr. Fatura. Deixar a data da última alteração em branco. Pedir a apresentação do relatório na tela.  Pegar a informação do "Num.Banco/Cód Oficial" [primeira coluna da direita do relatório]</t>
+  </si>
+  <si>
+    <t>Informar o Tipo de Transação e o Nr. Fatura. Deixar a data da última alteração em branco. Pedir a apresentação do relatório na tela.  Pegar a informação da "Última Alteração" [primeira coluna da direita do relatório]</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2113,6 +2116,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2121,7 +2135,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2242,9 +2256,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2255,6 +2266,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,51 +2296,33 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,6 +2362,36 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2372,29 +2407,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2436,58 +2483,40 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2496,35 +2525,20 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2532,14 +2546,47 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2846,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2866,7 +2913,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -2878,7 +2925,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C4" s="7"/>
     </row>
@@ -2902,7 +2949,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C8" s="7"/>
     </row>
@@ -2960,7 +3007,7 @@
         <v xml:space="preserve">CD_MODULO, </v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE("'",I2,"',")</f>
@@ -2976,7 +3023,7 @@
         <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K11" si="1">CONCATENATE("'",I3,"',")</f>
@@ -2992,7 +3039,7 @@
         <v xml:space="preserve">NR_REMESSA, </v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="1"/>
@@ -3001,14 +3048,14 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">NR_PARCELA, </v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
@@ -3024,7 +3071,7 @@
         <v xml:space="preserve">CD_METODO_RECEBIMENTO, </v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -3040,7 +3087,7 @@
         <v xml:space="preserve">DT_PREVISTA_RECEBIMENTO, </v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -3056,7 +3103,7 @@
         <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -3072,7 +3119,7 @@
         <v xml:space="preserve">DT_REMESSA, </v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -3086,7 +3133,7 @@
         <v xml:space="preserve">, </v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -3100,7 +3147,7 @@
         <v xml:space="preserve">, </v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -3275,7 +3322,7 @@
   </cols>
   <sheetData>
     <row r="12" spans="9:9">
-      <c r="I12" s="50"/>
+      <c r="I12" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3329,19 +3376,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="3" t="s">
         <v>137</v>
       </c>
@@ -3371,19 +3418,19 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1">
       <c r="A7" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>7</v>
@@ -3404,19 +3451,19 @@
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1">
       <c r="A8" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>7</v>
@@ -3437,19 +3484,19 @@
     </row>
     <row r="9" spans="1:18" s="12" customFormat="1">
       <c r="A9" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>7</v>
@@ -3470,25 +3517,25 @@
     </row>
     <row r="10" spans="1:18" s="12" customFormat="1">
       <c r="A10" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>274</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -3503,25 +3550,25 @@
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="F11" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -3536,19 +3583,19 @@
     </row>
     <row r="12" spans="1:18" s="12" customFormat="1">
       <c r="A12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>3</v>
@@ -3644,118 +3691,112 @@
       <c r="R16" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="51" t="s">
+      <c r="A18" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="53" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="57"/>
-      <c r="E27" s="60"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="57"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="57"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="57"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D30"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
@@ -3763,6 +3804,12 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3776,8 +3823,8 @@
   </sheetPr>
   <dimension ref="A2:AG39"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30:N39"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L32" sqref="C32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3819,26 +3866,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="27" customHeight="1">
       <c r="B4" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -3922,7 +3969,7 @@
         <v>107</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>168</v>
@@ -3949,7 +3996,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>2</v>
@@ -3958,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>17</v>
@@ -3989,34 +4036,34 @@
         <v>107</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="K8" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="L8" s="26" t="s">
         <v>291</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>292</v>
       </c>
       <c r="M8" s="26" t="s">
         <v>2</v>
@@ -4025,10 +4072,10 @@
         <v>13</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -4039,34 +4086,34 @@
         <v>107</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>288</v>
-      </c>
       <c r="G9" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>299</v>
-      </c>
       <c r="L9" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>2</v>
@@ -4075,10 +4122,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="12" customFormat="1">
@@ -4089,34 +4136,34 @@
         <v>107</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>301</v>
-      </c>
       <c r="L10" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M10" s="26" t="s">
         <v>2</v>
@@ -4125,10 +4172,10 @@
         <v>13</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -4156,34 +4203,34 @@
         <v>107</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I11" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>306</v>
-      </c>
       <c r="L11" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M11" s="26" t="s">
         <v>2</v>
@@ -4192,10 +4239,10 @@
         <v>13</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -4223,34 +4270,34 @@
         <v>107</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="E12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>303</v>
-      </c>
       <c r="L12" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>2</v>
@@ -4259,10 +4306,10 @@
         <v>13</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -4290,34 +4337,34 @@
         <v>107</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="E13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>297</v>
-      </c>
       <c r="L13" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>2</v>
@@ -4326,10 +4373,10 @@
         <v>13</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -4386,102 +4433,102 @@
     </row>
     <row r="18" spans="1:33" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="61" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="57" t="s">
+      <c r="F21" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="L21" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="57" t="s">
+      <c r="N21" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="O21" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="P21" s="57" t="s">
-        <v>174</v>
+      <c r="O21" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -4502,22 +4549,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -4537,22 +4584,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -4572,22 +4619,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -4607,22 +4654,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -4642,22 +4689,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -4677,22 +4724,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -4712,22 +4759,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4747,84 +4794,67 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="M30" s="63" t="s">
+      <c r="M30" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="64"/>
+      <c r="N30" s="65"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="M31" s="65" t="s">
+      <c r="M31" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="N31" s="66"/>
+      <c r="N31" s="61"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="N32" s="66"/>
+      <c r="N32" s="61"/>
     </row>
     <row r="33" spans="13:14">
-      <c r="M33" s="65" t="s">
+      <c r="M33" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="N33" s="66"/>
+      <c r="N33" s="61"/>
     </row>
     <row r="34" spans="13:14">
-      <c r="M34" s="65" t="s">
+      <c r="M34" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="N34" s="66"/>
+      <c r="N34" s="61"/>
     </row>
     <row r="35" spans="13:14">
-      <c r="M35" s="65" t="s">
+      <c r="M35" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="N35" s="66"/>
+      <c r="N35" s="61"/>
     </row>
     <row r="36" spans="13:14">
-      <c r="M36" s="65" t="s">
+      <c r="M36" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="N36" s="66"/>
+      <c r="N36" s="61"/>
     </row>
     <row r="37" spans="13:14">
-      <c r="M37" s="65" t="s">
+      <c r="M37" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="66"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="13:14">
-      <c r="M38" s="65" t="s">
+      <c r="M38" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="N38" s="66"/>
+      <c r="N38" s="61"/>
     </row>
     <row r="39" spans="13:14">
-      <c r="M39" s="67" t="s">
+      <c r="M39" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="68"/>
+      <c r="N39" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B18:F20"/>
-    <mergeCell ref="D21:D28"/>
     <mergeCell ref="G18:N20"/>
     <mergeCell ref="F21:F28"/>
     <mergeCell ref="O21:O28"/>
@@ -4838,6 +4868,23 @@
     <mergeCell ref="N21:N28"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="J21:J28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4851,8 +4898,8 @@
   </sheetPr>
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4860,8 +4907,8 @@
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="2" customWidth="1"/>
@@ -4878,21 +4925,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4906,10 +4953,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -4928,17 +4975,17 @@
       <c r="C7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>307</v>
+      <c r="D7" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>284</v>
+      <c r="G7" s="26" t="s">
+        <v>283</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4956,22 +5003,22 @@
         <v>54</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>308</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -4989,22 +5036,22 @@
         <v>54</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5022,22 +5069,22 @@
         <v>54</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -5055,22 +5102,22 @@
         <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="D11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -5088,22 +5135,22 @@
         <v>54</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -5121,22 +5168,22 @@
         <v>54</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -5195,124 +5242,128 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
       <c r="A18" s="11"/>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="149" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72" t="s">
+      <c r="C18" s="152"/>
+      <c r="D18" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="F18" s="146"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
+      <c r="B19" s="150"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="57"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
+      <c r="B20" s="151"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A21" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>176</v>
+      <c r="E21" s="110" t="s">
+        <v>531</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>532</v>
+      </c>
+      <c r="G21" s="110" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="27" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="1:7" ht="101.25">
-      <c r="D27" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>316</v>
-      </c>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="E21:E24"/>
+  <mergeCells count="12">
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="B18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="E18:G20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5345,27 +5396,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>38</v>
@@ -5374,13 +5425,13 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>41</v>
@@ -5392,36 +5443,36 @@
         <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>330</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
@@ -5430,16 +5481,16 @@
         <v>167</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>57</v>
@@ -5462,34 +5513,34 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>330</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>57</v>
@@ -5501,10 +5552,10 @@
         <v>57</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>56</v>
@@ -5512,16 +5563,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
@@ -5530,16 +5581,16 @@
         <v>167</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>57</v>
@@ -5562,34 +5613,34 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>57</v>
@@ -5601,7 +5652,7 @@
         <v>57</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>57</v>
@@ -5611,170 +5662,180 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
     </row>
     <row r="17" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A17" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="E17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="O17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="52"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="52"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="52"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="52"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="52"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="D25" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="L17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="M17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="N17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="O17" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="P17" s="57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="57"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="57"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="57"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="57"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="57"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="D25" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="F17:F22"/>
@@ -5784,16 +5845,6 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="A14:C16"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="P17:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5860,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="21">
@@ -5872,17 +5923,17 @@
       <c r="E4" s="29"/>
       <c r="F4" s="1"/>
       <c r="H4" s="29"/>
-      <c r="L4" s="90" t="s">
-        <v>391</v>
+      <c r="L4" s="82" t="s">
+        <v>388</v>
       </c>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="L5" s="90"/>
+      <c r="L5" s="82"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="L6" s="90"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:31" s="12" customFormat="1">
       <c r="A7" s="13" t="s">
@@ -5958,7 +6009,7 @@
         <v>42</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z7" s="13" t="s">
         <v>48</v>
@@ -5990,19 +6041,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>55</v>
@@ -6011,19 +6062,19 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>228</v>
+        <v>346</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>227</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P8" s="30" t="s">
         <v>7</v>
@@ -6034,8 +6085,8 @@
       <c r="R8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="49" t="s">
-        <v>228</v>
+      <c r="S8" s="48" t="s">
+        <v>227</v>
       </c>
       <c r="T8" s="21" t="s">
         <v>56</v>
@@ -6053,13 +6104,13 @@
         <v>56</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Z8" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA8" s="30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AB8" s="21" t="s">
         <v>7</v>
@@ -6085,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>7</v>
@@ -6094,31 +6145,31 @@
         <v>78</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K9" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="L9" s="30" t="s">
-        <v>399</v>
-      </c>
       <c r="M9" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P9" s="30" t="s">
         <v>7</v>
@@ -6130,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="T9" s="30" t="s">
         <v>56</v>
@@ -6148,25 +6199,25 @@
         <v>56</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z9" s="30" t="s">
         <v>57</v>
       </c>
       <c r="AA9" s="30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AC9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AE9" s="26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="12" customFormat="1">
@@ -6180,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>7</v>
@@ -6189,10 +6240,10 @@
         <v>78</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>1</v>
@@ -6201,19 +6252,19 @@
         <v>7</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M10" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="N10" s="21" t="s">
-        <v>411</v>
-      </c>
       <c r="O10" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P10" s="21" t="s">
         <v>7</v>
@@ -6225,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="T10" s="21" t="s">
         <v>56</v>
@@ -6243,25 +6294,25 @@
         <v>56</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Z10" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AB10" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AC10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="12" customFormat="1">
@@ -6275,19 +6326,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>4</v>
@@ -6296,19 +6347,19 @@
         <v>7</v>
       </c>
       <c r="K11" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>356</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>106</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>7</v>
@@ -6320,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="T11" s="21" t="s">
         <v>56</v>
@@ -6338,13 +6389,13 @@
         <v>56</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z11" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB11" s="21" t="s">
         <v>7</v>
@@ -6353,7 +6404,7 @@
         <v>7</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AE11" s="11" t="s">
         <v>0</v>
@@ -6370,19 +6421,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>4</v>
@@ -6391,19 +6442,19 @@
         <v>7</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P12" s="21" t="s">
         <v>7</v>
@@ -6415,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T12" s="21" t="s">
         <v>56</v>
@@ -6433,13 +6484,13 @@
         <v>56</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z12" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AB12" s="21" t="s">
         <v>7</v>
@@ -6448,7 +6499,7 @@
         <v>7</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AE12" s="11" t="s">
         <v>0</v>
@@ -6465,19 +6516,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6486,19 +6537,19 @@
         <v>7</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>7</v>
@@ -6510,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T13" s="21" t="s">
         <v>56</v>
@@ -6528,13 +6579,13 @@
         <v>56</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z13" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA13" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB13" s="21" t="s">
         <v>7</v>
@@ -6543,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AE13" s="11" t="s">
         <v>0</v>
@@ -6560,19 +6611,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>3</v>
@@ -6581,19 +6632,19 @@
         <v>7</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>7</v>
@@ -6605,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="T14" s="21" t="s">
         <v>56</v>
@@ -6623,13 +6674,13 @@
         <v>56</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z14" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA14" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB14" s="21" t="s">
         <v>7</v>
@@ -6638,7 +6689,7 @@
         <v>7</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AE14" s="11" t="s">
         <v>0</v>
@@ -6655,40 +6706,40 @@
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>7</v>
@@ -6700,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T15" s="21" t="s">
         <v>56</v>
@@ -6718,13 +6769,13 @@
         <v>56</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AB15" s="21" t="s">
         <v>7</v>
@@ -6733,10 +6784,10 @@
         <v>7</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6834,359 +6885,359 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="114" t="s">
-        <v>389</v>
-      </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD20" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE20" s="52"/>
+      <c r="F20" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD20" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="119"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="54"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="56"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="85" t="s">
-        <v>417</v>
-      </c>
-      <c r="K23" s="57" t="s">
+      <c r="J23" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="K23" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="N23" s="57" t="s">
+      <c r="L23" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="N23" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="O23" s="57" t="s">
+      <c r="P23" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q23" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="P23" s="57" t="s">
+      <c r="R23" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="Q23" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="R23" s="73" t="s">
+      <c r="S23" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="T23" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="U23" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="S23" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="T23" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="U23" s="57" t="s">
+      <c r="V23" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="V23" s="57" t="s">
+      <c r="W23" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="W23" s="57" t="s">
+      <c r="X23" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y23" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z23" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA23" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB23" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="X23" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y23" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z23" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA23" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB23" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC23" s="86" t="s">
+      <c r="AC23" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" s="57" t="s">
+      <c r="AD23" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="AE23" s="57" t="s">
+      <c r="AE23" s="52" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="88"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="95"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="88"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="95"/>
       <c r="AC28" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
     </row>
     <row r="29" spans="1:31">
       <c r="D29" s="1"/>
@@ -7202,7 +7253,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="88"/>
+      <c r="AB29" s="95"/>
       <c r="AC29" s="34" t="s">
         <v>156</v>
       </c>
@@ -7214,162 +7265,174 @@
       <c r="R30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="S30" s="73" t="s">
-        <v>418</v>
-      </c>
-      <c r="T30" s="73" t="s">
-        <v>419</v>
+      <c r="S30" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="T30" s="70" t="s">
+        <v>416</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB30" s="88"/>
+        <v>231</v>
+      </c>
+      <c r="AB30" s="95"/>
       <c r="AC30" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="I31" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="AB31" s="88"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="AB31" s="95"/>
       <c r="AC31" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:31">
       <c r="I32" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R32" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="AB32" s="88"/>
+        <v>191</v>
+      </c>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="AB32" s="95"/>
       <c r="AC32" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="9:29">
       <c r="I33" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R33" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="AB33" s="88"/>
+        <v>192</v>
+      </c>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="AB33" s="95"/>
       <c r="AC33" s="35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="34" spans="9:29">
       <c r="I34" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R34" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="AB34" s="88"/>
+        <v>193</v>
+      </c>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="AB34" s="95"/>
       <c r="AC34" s="35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="35" spans="9:29">
       <c r="I35" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R35" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="AB35" s="88"/>
+        <v>194</v>
+      </c>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="AB35" s="95"/>
       <c r="AC35" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="9:29">
       <c r="I36" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R36" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="AB36" s="88"/>
+        <v>195</v>
+      </c>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="AB36" s="95"/>
       <c r="AC36" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="9:29">
       <c r="I37" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R37" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="AB37" s="88"/>
+      <c r="AB37" s="95"/>
       <c r="AC37" s="36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" spans="9:29">
       <c r="I38" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R38" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB38" s="89"/>
+        <v>196</v>
+      </c>
+      <c r="AB38" s="96"/>
     </row>
     <row r="39" spans="9:29">
       <c r="I39" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R39" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="9:29">
       <c r="I40" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="9:29">
       <c r="I41" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="R41" s="73" t="s">
-        <v>231</v>
+        <v>207</v>
+      </c>
+      <c r="R41" s="70" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="9:29">
       <c r="I42" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="R42" s="74"/>
+        <v>208</v>
+      </c>
+      <c r="R42" s="71"/>
     </row>
     <row r="43" spans="9:29">
-      <c r="R43" s="75"/>
+      <c r="R43" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="S30:S36"/>
-    <mergeCell ref="T30:T36"/>
-    <mergeCell ref="F20:AB22"/>
-    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="AD20:AE22"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="AC23:AC26"/>
+    <mergeCell ref="AB23:AB38"/>
+    <mergeCell ref="AA23:AA28"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AE23:AE28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="O23:O28"/>
     <mergeCell ref="AC20:AC22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="B23:B28"/>
@@ -7386,23 +7449,11 @@
     <mergeCell ref="S23:S28"/>
     <mergeCell ref="T23:T28"/>
     <mergeCell ref="X23:X28"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AE23:AE28"/>
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="O23:O28"/>
-    <mergeCell ref="AD20:AE22"/>
-    <mergeCell ref="U23:U28"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="AC23:AC26"/>
-    <mergeCell ref="AB23:AB38"/>
-    <mergeCell ref="AA23:AA28"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="S30:S36"/>
+    <mergeCell ref="T30:T36"/>
+    <mergeCell ref="F20:AB22"/>
+    <mergeCell ref="R41:R43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7455,32 +7506,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="T4" s="17"/>
@@ -7548,7 +7599,7 @@
         <v>63</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U7" s="13" t="s">
         <v>73</v>
@@ -7592,22 +7643,22 @@
         <v>7</v>
       </c>
       <c r="F8" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>420</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>423</v>
       </c>
       <c r="L8" s="26" t="s">
         <v>1</v>
@@ -7616,34 +7667,34 @@
         <v>0</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q8" s="30" t="s">
         <v>79</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="T8" s="26" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="V8" s="30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="W8" s="30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="X8" s="30" t="s">
         <v>3</v>
@@ -7658,7 +7709,7 @@
         <v>22</v>
       </c>
       <c r="AB8" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1">
@@ -7678,7 +7729,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>168</v>
@@ -7687,7 +7738,7 @@
         <v>107</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>17</v>
@@ -7708,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q9" s="30" t="s">
         <v>79</v>
@@ -7723,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="U9" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V9" s="30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="W9" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X9" s="30" t="s">
         <v>4</v>
@@ -7744,7 +7795,7 @@
         <v>22</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1">
@@ -7764,22 +7815,22 @@
         <v>7</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>107</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>59</v>
@@ -7788,19 +7839,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="30" t="s">
         <v>79</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="S10" s="26" t="s">
         <v>1</v>
@@ -7809,13 +7860,13 @@
         <v>0</v>
       </c>
       <c r="U10" s="30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V10" s="30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="W10" s="30" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="X10" s="30" t="s">
         <v>2</v>
@@ -7827,10 +7878,10 @@
         <v>82</v>
       </c>
       <c r="AA10" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AB10" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1">
@@ -7850,22 +7901,22 @@
         <v>7</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>107</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>59</v>
@@ -7874,19 +7925,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="21" t="s">
         <v>77</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>1</v>
@@ -7895,13 +7946,13 @@
         <v>0</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="W11" s="21" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="X11" s="21" t="s">
         <v>2</v>
@@ -7913,10 +7964,10 @@
         <v>82</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="12" customFormat="1">
@@ -7936,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>107</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>1</v>
@@ -7960,19 +8011,19 @@
         <v>1</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q12" s="21" t="s">
         <v>79</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>1</v>
@@ -7981,13 +8032,13 @@
         <v>0</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="W12" s="21" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="X12" s="21" t="s">
         <v>2</v>
@@ -7999,10 +8050,10 @@
         <v>82</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AB12" s="21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="12" customFormat="1">
@@ -8022,7 +8073,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>168</v>
@@ -8031,10 +8082,10 @@
         <v>107</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>1</v>
@@ -8046,19 +8097,19 @@
         <v>55</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="21" t="s">
         <v>79</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>0</v>
@@ -8067,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X13" s="21" t="s">
         <v>4</v>
@@ -8088,7 +8139,7 @@
         <v>22</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="12" customFormat="1">
@@ -8108,19 +8159,19 @@
         <v>7</v>
       </c>
       <c r="F14" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>455</v>
-      </c>
       <c r="J14" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>5</v>
@@ -8132,13 +8183,13 @@
         <v>2</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="21" t="s">
         <v>79</v>
@@ -8147,19 +8198,19 @@
         <v>7</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W14" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="X14" s="21" t="s">
         <v>3</v>
@@ -8171,10 +8222,10 @@
         <v>82</v>
       </c>
       <c r="AA14" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB14" s="21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="11" customFormat="1"/>
@@ -8191,287 +8242,287 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G17" s="105" t="s">
+      <c r="G17" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="S17" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="37"/>
+    </row>
+    <row r="18" spans="1:28" ht="11.25" customHeight="1">
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="38"/>
+    </row>
+    <row r="19" spans="1:28" ht="18" customHeight="1">
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="39"/>
+    </row>
+    <row r="20" spans="1:28" ht="11.25" customHeight="1">
+      <c r="A20" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="M20" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="S17" s="123" t="s">
+      <c r="P20" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="94" t="s">
+        <v>459</v>
+      </c>
+      <c r="S20" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="U20" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="V20" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="37"/>
-    </row>
-    <row r="18" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="38"/>
-    </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1">
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="39"/>
-    </row>
-    <row r="20" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A20" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>459</v>
-      </c>
-      <c r="H20" s="73" t="s">
-        <v>460</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>461</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="M20" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="O20" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="P20" s="73" t="s">
+      <c r="W20" s="70" t="s">
+        <v>465</v>
+      </c>
+      <c r="X20" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y20" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="Q20" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="R20" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="S20" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="T20" s="73" t="s">
-        <v>464</v>
-      </c>
-      <c r="U20" s="73" t="s">
-        <v>465</v>
-      </c>
-      <c r="V20" s="73" t="s">
-        <v>466</v>
-      </c>
-      <c r="W20" s="73" t="s">
-        <v>468</v>
-      </c>
-      <c r="X20" s="73" t="s">
-        <v>467</v>
-      </c>
-      <c r="Y20" s="96" t="s">
+      <c r="Z20" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="Z20" s="96" t="s">
+      <c r="AA20" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="AA20" s="73" t="s">
+      <c r="AB20" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="AB20" s="73" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="74"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="71"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="74"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="71"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="75"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="108"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="72"/>
     </row>
     <row r="24" spans="1:28">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="M24" s="99"/>
+      <c r="M24" s="110"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="88"/>
+      <c r="R24" s="95"/>
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="108"/>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="M25" s="99"/>
+      <c r="M25" s="110"/>
       <c r="N25" s="1"/>
       <c r="O25" s="15" t="s">
         <v>85</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="R25" s="88"/>
+      <c r="R25" s="95"/>
       <c r="S25" s="27" t="s">
         <v>85</v>
       </c>
@@ -8479,9 +8530,9 @@
       <c r="X25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
       <c r="AB25" s="15" t="s">
         <v>115</v>
       </c>
@@ -8490,13 +8541,13 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="M26" s="99"/>
+      <c r="M26" s="110"/>
       <c r="N26" s="1"/>
       <c r="O26" s="22" t="s">
         <v>111</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="R26" s="88"/>
+      <c r="R26" s="95"/>
       <c r="S26" s="40" t="s">
         <v>91</v>
       </c>
@@ -8505,14 +8556,14 @@
         <v>113</v>
       </c>
       <c r="AB26" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="E27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="R27" s="88"/>
+      <c r="R27" s="95"/>
       <c r="U27" s="2"/>
       <c r="X27" s="1"/>
     </row>
@@ -8520,17 +8571,17 @@
       <c r="E28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="R28" s="88"/>
+      <c r="R28" s="95"/>
     </row>
     <row r="29" spans="1:28">
       <c r="Q29" s="2"/>
-      <c r="R29" s="88"/>
+      <c r="R29" s="95"/>
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:28">
       <c r="Q30" s="2"/>
-      <c r="R30" s="89"/>
+      <c r="R30" s="96"/>
       <c r="T30" s="1"/>
       <c r="X30" s="1"/>
     </row>
@@ -8542,7 +8593,7 @@
     <row r="32" spans="1:28">
       <c r="Q32" s="2"/>
       <c r="R32" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T32" s="1"/>
       <c r="X32" s="1"/>
@@ -8700,6 +8751,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="AB20:AB23"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="Y20:Y25"/>
+    <mergeCell ref="Z20:Z25"/>
+    <mergeCell ref="AA20:AA25"/>
+    <mergeCell ref="R20:R30"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="G17:Q19"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S17:AA19"/>
     <mergeCell ref="D20:D23"/>
@@ -8716,25 +8786,6 @@
     <mergeCell ref="S20:S23"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="N20:N23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="G17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="AB20:AB23"/>
-    <mergeCell ref="U20:U23"/>
-    <mergeCell ref="V20:V23"/>
-    <mergeCell ref="Y20:Y25"/>
-    <mergeCell ref="Z20:Z25"/>
-    <mergeCell ref="AA20:AA25"/>
-    <mergeCell ref="R20:R30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8778,7 +8829,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F2" s="1"/>
       <c r="L2" s="1"/>
@@ -8788,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C3" s="3"/>
       <c r="F3" s="1"/>
@@ -8808,22 +8859,22 @@
         <v>29</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>47</v>
@@ -8855,28 +8906,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>491</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>494</v>
       </c>
       <c r="L6" s="26" t="s">
         <v>2</v>
@@ -8891,7 +8942,7 @@
         <v>7</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="12" customFormat="1">
@@ -8905,25 +8956,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>57</v>
@@ -8938,10 +8989,10 @@
         <v>82</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1">
@@ -8955,25 +9006,25 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>57</v>
@@ -8988,10 +9039,10 @@
         <v>82</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1">
@@ -9005,25 +9056,25 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>57</v>
@@ -9038,10 +9089,10 @@
         <v>82</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1">
@@ -9055,25 +9106,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>476</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>57</v>
@@ -9088,10 +9139,10 @@
         <v>82</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1">
@@ -9105,25 +9156,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>57</v>
@@ -9138,10 +9189,10 @@
         <v>82</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1">
@@ -9155,25 +9206,25 @@
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>57</v>
@@ -9188,10 +9239,10 @@
         <v>82</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1">
@@ -9205,25 +9256,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>57</v>
@@ -9238,10 +9289,10 @@
         <v>82</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1">
@@ -9255,25 +9306,25 @@
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>57</v>
@@ -9288,10 +9339,10 @@
         <v>82</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1">
@@ -9305,28 +9356,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>513</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>516</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>2</v>
@@ -9341,7 +9392,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1">
@@ -9363,196 +9414,196 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D18" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
+      <c r="D18" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
     </row>
     <row r="20" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A21" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="O21" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>519</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>520</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>521</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>522</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>523</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>525</v>
-      </c>
-      <c r="L21" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="57" t="s">
+      <c r="P21" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="N21" s="57" t="s">
-        <v>528</v>
-      </c>
-      <c r="O21" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="P21" s="57" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="112.5">
       <c r="H27" s="14"/>
       <c r="L27" s="16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="O27" s="2"/>
       <c r="Q27" s="2"/>
@@ -9579,14 +9630,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="D18:P20"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="P21:P26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="M21:M26"/>
     <mergeCell ref="N21:N26"/>
@@ -9596,6 +9639,14 @@
     <mergeCell ref="E21:E26"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="H21:H26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="D18:P20"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="P21:P26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9648,7 +9699,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9664,7 +9715,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>19</v>
@@ -9702,25 +9753,25 @@
         <v>54</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>287</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>2</v>
@@ -9729,10 +9780,10 @@
         <v>13</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9743,25 +9794,25 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>2</v>
@@ -9770,10 +9821,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9784,25 +9835,25 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>2</v>
@@ -9811,10 +9862,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9825,25 +9876,25 @@
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>2</v>
@@ -9852,10 +9903,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9866,25 +9917,25 @@
         <v>54</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>2</v>
@@ -9893,10 +9944,10 @@
         <v>13</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9907,25 +9958,25 @@
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>2</v>
@@ -9934,10 +9985,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9948,25 +9999,25 @@
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>2</v>
@@ -9975,10 +10026,10 @@
         <v>13</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9989,25 +10040,25 @@
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>2</v>
@@ -10016,10 +10067,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10030,25 +10081,25 @@
         <v>54</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>2</v>
@@ -10057,10 +10108,10 @@
         <v>13</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10071,25 +10122,25 @@
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>2</v>
@@ -10098,10 +10149,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10112,25 +10163,25 @@
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>2</v>
@@ -10139,10 +10190,10 @@
         <v>13</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -10153,25 +10204,25 @@
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>2</v>
@@ -10180,10 +10231,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10194,25 +10245,25 @@
         <v>54</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>2</v>
@@ -10221,10 +10272,10 @@
         <v>13</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10235,25 +10286,25 @@
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>2</v>
@@ -10262,10 +10313,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10276,25 +10327,25 @@
         <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>2</v>
@@ -10303,10 +10354,10 @@
         <v>13</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10317,25 +10368,25 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>2</v>
@@ -10344,10 +10395,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10361,19 +10412,19 @@
         <v>54</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>476</v>
-      </c>
       <c r="G23" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>3</v>
@@ -10391,187 +10442,187 @@
         <v>7</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133" t="s">
+        <v>477</v>
+      </c>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="143" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="141" t="s">
-        <v>478</v>
-      </c>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141" t="s">
-        <v>480</v>
-      </c>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="148" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="26" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
       <c r="M26" s="144"/>
     </row>
     <row r="27" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
       <c r="M27" s="145"/>
     </row>
     <row r="28" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A28" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="E28" s="57" t="s">
+      <c r="D28" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="H28" s="57" t="s">
+      <c r="G28" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="H28" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="L28" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="M28" s="146" t="s">
+      <c r="L28" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="M28" s="129" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="147"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="130"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="147"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="130"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="147"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="130"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="147"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="130"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="147"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="130"/>
     </row>
     <row r="34" spans="1:13" ht="112.5">
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
       <c r="H34" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="J34" s="142" t="s">
-        <v>481</v>
-      </c>
-      <c r="K34" s="143"/>
+        <v>476</v>
+      </c>
+      <c r="J34" s="131" t="s">
+        <v>478</v>
+      </c>
+      <c r="K34" s="132"/>
       <c r="L34" s="45" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M34" s="24" t="s">
         <v>122</v>
@@ -10597,11 +10648,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K28:K33"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="I25:L27"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="J28:J33"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
     <mergeCell ref="F25:H27"/>
     <mergeCell ref="E28:E33"/>
     <mergeCell ref="D28:D33"/>
@@ -10609,12 +10661,11 @@
     <mergeCell ref="F28:F33"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I25:L27"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="K28:K33"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C28:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/20151124_Confere/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/20151124_Confere/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="992" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="992" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="534">
   <si>
     <t>1</t>
   </si>
@@ -2266,35 +2266,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2308,191 +2326,254 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,87 +2587,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2990,7 +2990,7 @@
   <dimension ref="C2:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3000,11 +3000,11 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="C2" s="41" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(C2,", ")</f>
-        <v xml:space="preserve">CD_MODULO, </v>
+        <v xml:space="preserve">CD_CIA, </v>
       </c>
       <c r="I2" s="26" t="s">
         <v>180</v>
@@ -3016,11 +3016,11 @@
     </row>
     <row r="3" spans="3:11">
       <c r="C3" s="41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E32" si="0">CONCATENATE(C3,", ")</f>
-        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
+        <v xml:space="preserve">CD_MODULO, </v>
       </c>
       <c r="I3" s="26" t="s">
         <v>210</v>
@@ -3032,11 +3032,11 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="41" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">NR_REMESSA, </v>
+        <v xml:space="preserve">CD_CHAVE_PRIMARIA, </v>
       </c>
       <c r="I4" s="2" t="s">
         <v>211</v>
@@ -3064,11 +3064,11 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="41" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_METODO_RECEBIMENTO, </v>
+        <v xml:space="preserve">NR_REMESSA, </v>
       </c>
       <c r="I6" s="2" t="s">
         <v>184</v>
@@ -3096,11 +3096,11 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="41" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
+        <v xml:space="preserve">CD_METODO_RECEBIMENTO, </v>
       </c>
       <c r="I8" s="2" t="s">
         <v>186</v>
@@ -3112,11 +3112,11 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="41" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">DT_REMESSA, </v>
+        <v xml:space="preserve">CD_SITUACAO_TITULO, </v>
       </c>
       <c r="I9" s="2" t="s">
         <v>187</v>
@@ -3127,10 +3127,12 @@
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="41"/>
+      <c r="C10" s="41" t="s">
+        <v>141</v>
+      </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">NR_BANCO, </v>
       </c>
       <c r="I10" s="2" t="s">
         <v>188</v>
@@ -3141,10 +3143,12 @@
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="41"/>
+      <c r="C11" s="41" t="s">
+        <v>138</v>
+      </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">CD_STATUS_ARQUIVO, </v>
       </c>
       <c r="I11" s="2" t="s">
         <v>189</v>
@@ -3155,24 +3159,30 @@
       </c>
     </row>
     <row r="12" spans="3:11">
-      <c r="C12" s="41"/>
+      <c r="C12" s="41" t="s">
+        <v>139</v>
+      </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">CD_STATUS_ENVIO, </v>
       </c>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="41"/>
+      <c r="C13" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">NR_CONTA, </v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="41"/>
+      <c r="C14" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">DT_REMESSA, </v>
       </c>
     </row>
     <row r="15" spans="3:11">
@@ -3376,19 +3386,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3" t="s">
         <v>137</v>
       </c>
@@ -3691,112 +3701,118 @@
       <c r="R16" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="54" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="58" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="61" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
@@ -3804,12 +3820,6 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3866,19 +3876,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3" t="s">
         <v>174</v>
       </c>
@@ -4433,101 +4443,101 @@
     </row>
     <row r="18" spans="1:33" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="O21" s="52" t="s">
+      <c r="O21" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="58" t="s">
         <v>173</v>
       </c>
       <c r="Q21" s="1"/>
@@ -4549,22 +4559,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -4584,22 +4594,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -4619,22 +4629,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -4654,22 +4664,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -4689,22 +4699,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -4724,22 +4734,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -4759,22 +4769,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4800,61 +4810,78 @@
       <c r="N30" s="65"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="M31" s="60" t="s">
+      <c r="M31" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="N31" s="61"/>
+      <c r="N31" s="67"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="M32" s="60" t="s">
+      <c r="M32" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="N32" s="61"/>
+      <c r="N32" s="67"/>
     </row>
     <row r="33" spans="13:14">
-      <c r="M33" s="60" t="s">
+      <c r="M33" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="N33" s="61"/>
+      <c r="N33" s="67"/>
     </row>
     <row r="34" spans="13:14">
-      <c r="M34" s="60" t="s">
+      <c r="M34" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="N34" s="61"/>
+      <c r="N34" s="67"/>
     </row>
     <row r="35" spans="13:14">
-      <c r="M35" s="60" t="s">
+      <c r="M35" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="N35" s="61"/>
+      <c r="N35" s="67"/>
     </row>
     <row r="36" spans="13:14">
-      <c r="M36" s="60" t="s">
+      <c r="M36" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="N36" s="61"/>
+      <c r="N36" s="67"/>
     </row>
     <row r="37" spans="13:14">
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="61"/>
+      <c r="N37" s="67"/>
     </row>
     <row r="38" spans="13:14">
-      <c r="M38" s="60" t="s">
+      <c r="M38" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="N38" s="61"/>
+      <c r="N38" s="67"/>
     </row>
     <row r="39" spans="13:14">
-      <c r="M39" s="62" t="s">
+      <c r="M39" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="63"/>
+      <c r="N39" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
     <mergeCell ref="G18:N20"/>
     <mergeCell ref="F21:F28"/>
     <mergeCell ref="O21:O28"/>
@@ -4868,23 +4895,6 @@
     <mergeCell ref="N21:N28"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="J21:J28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B18:F20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4898,7 +4908,7 @@
   </sheetPr>
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4925,19 +4935,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3" t="s">
         <v>174</v>
       </c>
@@ -5244,114 +5254,118 @@
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
       <c r="A18" s="11"/>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="152"/>
-      <c r="D18" s="69" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="52" t="s">
         <v>530</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="55"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="B19" s="150"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="57"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="B20" s="151"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="59"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="83" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="158" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="101.25">
-      <c r="D27" s="159" t="s">
+      <c r="D27" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E18:G20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -5360,10 +5374,6 @@
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="B18:C20"/>
-    <mergeCell ref="E18:G20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5396,19 +5406,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -5662,161 +5672,161 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
     </row>
     <row r="17" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="O17" s="52" t="s">
+      <c r="O17" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="58" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="52"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="52"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="52"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="52"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="52"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="25" spans="1:16">
       <c r="D25" s="46" t="s">
@@ -5826,16 +5836,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="F17:F22"/>
@@ -5845,6 +5845,16 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="A14:C16"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5923,17 +5933,17 @@
       <c r="E4" s="29"/>
       <c r="F4" s="1"/>
       <c r="H4" s="29"/>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="101" t="s">
         <v>388</v>
       </c>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="L5" s="82"/>
+      <c r="L5" s="101"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="L6" s="82"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:31" s="12" customFormat="1">
       <c r="A7" s="13" t="s">
@@ -6885,359 +6895,359 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="66" t="s">
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AD20" s="54" t="s">
+      <c r="AD20" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="AE20" s="55"/>
+      <c r="AE20" s="53"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="55"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="59"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="I23" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="92" t="s">
+      <c r="J23" s="96" t="s">
         <v>414</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="52" t="s">
+      <c r="L23" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="N23" s="52" t="s">
+      <c r="N23" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="O23" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q23" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="R23" s="70" t="s">
+      <c r="R23" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="S23" s="52" t="s">
+      <c r="S23" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="T23" s="52" t="s">
+      <c r="T23" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="U23" s="52" t="s">
+      <c r="U23" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="V23" s="52" t="s">
+      <c r="V23" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="W23" s="52" t="s">
+      <c r="W23" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="X23" s="52" t="s">
+      <c r="X23" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="Y23" s="52" t="s">
+      <c r="Y23" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="Z23" s="52" t="s">
+      <c r="Z23" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="AA23" s="70" t="s">
+      <c r="AA23" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="AB23" s="94" t="s">
+      <c r="AB23" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="AC23" s="93" t="s">
+      <c r="AC23" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" s="52" t="s">
+      <c r="AD23" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="AE23" s="52" t="s">
+      <c r="AE23" s="58" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="95"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="99"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="95"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="99"/>
       <c r="AC28" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
     </row>
     <row r="29" spans="1:31">
       <c r="D29" s="1"/>
@@ -7253,7 +7263,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="95"/>
+      <c r="AB29" s="99"/>
       <c r="AC29" s="34" t="s">
         <v>156</v>
       </c>
@@ -7265,16 +7275,16 @@
       <c r="R30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="S30" s="70" t="s">
+      <c r="S30" s="84" t="s">
         <v>415</v>
       </c>
-      <c r="T30" s="70" t="s">
+      <c r="T30" s="84" t="s">
         <v>416</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AB30" s="95"/>
+      <c r="AB30" s="99"/>
       <c r="AC30" s="35" t="s">
         <v>157</v>
       </c>
@@ -7286,9 +7296,9 @@
       <c r="R31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="AB31" s="95"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="AB31" s="99"/>
       <c r="AC31" s="35" t="s">
         <v>158</v>
       </c>
@@ -7300,9 +7310,9 @@
       <c r="R32" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="AB32" s="95"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="AB32" s="99"/>
       <c r="AC32" s="35" t="s">
         <v>159</v>
       </c>
@@ -7314,9 +7324,9 @@
       <c r="R33" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="AB33" s="95"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="AB33" s="99"/>
       <c r="AC33" s="35" t="s">
         <v>160</v>
       </c>
@@ -7328,9 +7338,9 @@
       <c r="R34" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="AB34" s="95"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="AB34" s="99"/>
       <c r="AC34" s="35" t="s">
         <v>161</v>
       </c>
@@ -7342,9 +7352,9 @@
       <c r="R35" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="AB35" s="95"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="AB35" s="99"/>
       <c r="AC35" s="35" t="s">
         <v>162</v>
       </c>
@@ -7356,9 +7366,9 @@
       <c r="R36" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="AB36" s="95"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="AB36" s="99"/>
       <c r="AC36" s="35" t="s">
         <v>163</v>
       </c>
@@ -7370,7 +7380,7 @@
       <c r="R37" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="AB37" s="95"/>
+      <c r="AB37" s="99"/>
       <c r="AC37" s="36" t="s">
         <v>164</v>
       </c>
@@ -7382,7 +7392,7 @@
       <c r="R38" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="AB38" s="96"/>
+      <c r="AB38" s="100"/>
     </row>
     <row r="39" spans="9:29">
       <c r="I39" s="31" t="s">
@@ -7401,7 +7411,7 @@
       <c r="I41" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="R41" s="70" t="s">
+      <c r="R41" s="84" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7409,13 +7419,40 @@
       <c r="I42" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="R42" s="71"/>
+      <c r="R42" s="85"/>
     </row>
     <row r="43" spans="9:29">
-      <c r="R43" s="72"/>
+      <c r="R43" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="S30:S36"/>
+    <mergeCell ref="T30:T36"/>
+    <mergeCell ref="F20:AB22"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="Y23:Y28"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="T23:T28"/>
+    <mergeCell ref="X23:X28"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="O23:O28"/>
     <mergeCell ref="AD20:AE22"/>
     <mergeCell ref="U23:U28"/>
     <mergeCell ref="V23:V28"/>
@@ -7425,35 +7462,8 @@
     <mergeCell ref="AA23:AA28"/>
     <mergeCell ref="AD23:AD28"/>
     <mergeCell ref="AE23:AE28"/>
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="O23:O28"/>
     <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="G23:G28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="Y23:Y28"/>
     <mergeCell ref="Z23:Z28"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="S23:S28"/>
-    <mergeCell ref="T23:T28"/>
-    <mergeCell ref="X23:X28"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="S30:S36"/>
-    <mergeCell ref="T30:T36"/>
-    <mergeCell ref="F20:AB22"/>
-    <mergeCell ref="R41:R43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7506,32 +7516,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="T4" s="17"/>
@@ -8242,287 +8252,287 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G17" s="116" t="s">
+      <c r="G17" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="125" t="s">
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="S17" s="98" t="s">
+      <c r="S17" s="127" t="s">
         <v>460</v>
       </c>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="100"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="129"/>
       <c r="AB17" s="37"/>
     </row>
     <row r="18" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="103"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="132"/>
       <c r="AB18" s="38"/>
     </row>
     <row r="19" spans="1:28" ht="18" customHeight="1">
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="106"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="135"/>
       <c r="AB19" s="39"/>
     </row>
     <row r="20" spans="1:28" ht="11.25" customHeight="1">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="52" t="s">
+      <c r="L20" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="M20" s="110" t="s">
+      <c r="M20" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="70" t="s">
+      <c r="N20" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="O20" s="70" t="s">
+      <c r="O20" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="P20" s="70" t="s">
+      <c r="P20" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="Q20" s="111" t="s">
+      <c r="Q20" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="94" t="s">
+      <c r="R20" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="S20" s="68" t="s">
+      <c r="S20" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="T20" s="70" t="s">
+      <c r="T20" s="84" t="s">
         <v>461</v>
       </c>
-      <c r="U20" s="70" t="s">
+      <c r="U20" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="V20" s="70" t="s">
+      <c r="V20" s="84" t="s">
         <v>463</v>
       </c>
-      <c r="W20" s="70" t="s">
+      <c r="W20" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="X20" s="70" t="s">
+      <c r="X20" s="84" t="s">
         <v>464</v>
       </c>
-      <c r="Y20" s="128" t="s">
+      <c r="Y20" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="Z20" s="128" t="s">
+      <c r="Z20" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="AA20" s="70" t="s">
+      <c r="AA20" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="AB20" s="70" t="s">
+      <c r="AB20" s="84" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="71"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="85"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="71"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="85"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="72"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="86"/>
     </row>
     <row r="24" spans="1:28">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="M24" s="110"/>
+      <c r="M24" s="83"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="95"/>
+      <c r="R24" s="99"/>
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="M25" s="110"/>
+      <c r="M25" s="83"/>
       <c r="N25" s="1"/>
       <c r="O25" s="15" t="s">
         <v>85</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="R25" s="95"/>
+      <c r="R25" s="99"/>
       <c r="S25" s="27" t="s">
         <v>85</v>
       </c>
@@ -8530,9 +8540,9 @@
       <c r="X25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="109"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="115"/>
+      <c r="AA25" s="115"/>
       <c r="AB25" s="15" t="s">
         <v>115</v>
       </c>
@@ -8541,13 +8551,13 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="M26" s="110"/>
+      <c r="M26" s="83"/>
       <c r="N26" s="1"/>
       <c r="O26" s="22" t="s">
         <v>111</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="R26" s="95"/>
+      <c r="R26" s="99"/>
       <c r="S26" s="40" t="s">
         <v>91</v>
       </c>
@@ -8563,7 +8573,7 @@
       <c r="E27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="R27" s="95"/>
+      <c r="R27" s="99"/>
       <c r="U27" s="2"/>
       <c r="X27" s="1"/>
     </row>
@@ -8571,17 +8581,17 @@
       <c r="E28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="R28" s="95"/>
+      <c r="R28" s="99"/>
     </row>
     <row r="29" spans="1:28">
       <c r="Q29" s="2"/>
-      <c r="R29" s="95"/>
+      <c r="R29" s="99"/>
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:28">
       <c r="Q30" s="2"/>
-      <c r="R30" s="96"/>
+      <c r="R30" s="100"/>
       <c r="T30" s="1"/>
       <c r="X30" s="1"/>
     </row>
@@ -8592,7 +8602,7 @@
     </row>
     <row r="32" spans="1:28">
       <c r="Q32" s="2"/>
-      <c r="R32" s="97" t="s">
+      <c r="R32" s="126" t="s">
         <v>256</v>
       </c>
       <c r="T32" s="1"/>
@@ -8600,7 +8610,7 @@
     </row>
     <row r="33" spans="17:24">
       <c r="Q33" s="2"/>
-      <c r="R33" s="97"/>
+      <c r="R33" s="126"/>
       <c r="T33" s="1"/>
       <c r="X33" s="1"/>
     </row>
@@ -8751,25 +8761,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="AB20:AB23"/>
-    <mergeCell ref="U20:U23"/>
-    <mergeCell ref="V20:V23"/>
-    <mergeCell ref="Y20:Y25"/>
-    <mergeCell ref="Z20:Z25"/>
-    <mergeCell ref="AA20:AA25"/>
-    <mergeCell ref="R20:R30"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="G17:Q19"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S17:AA19"/>
     <mergeCell ref="D20:D23"/>
@@ -8786,6 +8777,25 @@
     <mergeCell ref="S20:S23"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="N20:N23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="G17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="AB20:AB23"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="Y20:Y25"/>
+    <mergeCell ref="Z20:Z25"/>
+    <mergeCell ref="AA20:AA25"/>
+    <mergeCell ref="R20:R30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9414,191 +9424,191 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="O21" s="52" t="s">
+      <c r="O21" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="58" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="1:19" ht="112.5">
       <c r="H27" s="14"/>
@@ -9630,6 +9640,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="D18:P20"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="P21:P26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="M21:M26"/>
     <mergeCell ref="N21:N26"/>
@@ -9639,14 +9657,6 @@
     <mergeCell ref="E21:E26"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="H21:H26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="D18:P20"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="P21:P26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9658,10 +9668,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:M40"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:L33"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -9745,164 +9755,164 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" s="12" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="11" t="s">
         <v>287</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:13" s="12" customFormat="1">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>287</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13" s="12" customFormat="1">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="11" t="s">
         <v>287</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" s="12" customFormat="1">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>287</v>
       </c>
       <c r="M9" s="11" t="s">
@@ -9917,755 +9927,260 @@
         <v>54</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>285</v>
+        <v>470</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>286</v>
+        <v>471</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>467</v>
+        <v>251</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>298</v>
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>446</v>
+        <v>7</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>446</v>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="11.25" customHeight="1">
+      <c r="C12" s="147" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="143" t="s">
+        <v>475</v>
+      </c>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143" t="s">
+        <v>477</v>
+      </c>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="11.25" customHeight="1">
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="145"/>
+    </row>
+    <row r="14" spans="1:13" ht="11.25" customHeight="1">
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="146"/>
+    </row>
+    <row r="15" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A15" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="M15" s="156" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>446</v>
-      </c>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="157"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>446</v>
-      </c>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="157"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>446</v>
-      </c>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="157"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>446</v>
-      </c>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="157"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>446</v>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="157"/>
+    </row>
+    <row r="21" spans="1:13" ht="112.5">
+      <c r="F21" s="14"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="J21" s="158" t="s">
+        <v>478</v>
+      </c>
+      <c r="K21" s="159"/>
+      <c r="L21" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13">
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C25" s="134" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="133" t="s">
-        <v>475</v>
-      </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133" t="s">
-        <v>477</v>
-      </c>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="143" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="144"/>
-    </row>
-    <row r="27" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="145"/>
-    </row>
-    <row r="28" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A28" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="M28" s="129" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="130"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="130"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="130"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="130"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="130"/>
-    </row>
-    <row r="34" spans="1:13" ht="112.5">
-      <c r="F34" s="14"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="J34" s="131" t="s">
-        <v>478</v>
-      </c>
-      <c r="K34" s="132"/>
-      <c r="L34" s="45" t="s">
-        <v>480</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="M40" s="2"/>
+    <row r="25" spans="1:13">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="M27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I25:L27"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="J28:J33"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="F25:H27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="C25:E27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="K28:K33"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="I12:L14"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="F12:H14"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C12:E14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="M15:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/20151124_Confere/Conferencia_CAR.xlsx
+++ b/Documentação/Planilhas/20151124_Confere/Conferencia_CAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="992" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="576" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -2272,6 +2272,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2290,41 +2302,41 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2356,18 +2368,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2404,6 +2404,36 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2419,35 +2449,81 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2458,85 +2534,15 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,12 +2587,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3386,19 +3386,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3" t="s">
         <v>137</v>
       </c>
@@ -3701,118 +3701,112 @@
       <c r="R16" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="52" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="54" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="58"/>
-      <c r="E27" s="61"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="58"/>
-      <c r="E28" s="61"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="58"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="58"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D30"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
@@ -3820,6 +3814,12 @@
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3876,19 +3876,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3" t="s">
         <v>174</v>
       </c>
@@ -4443,101 +4443,101 @@
     </row>
     <row r="18" spans="1:33" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="62" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
     </row>
     <row r="21" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="N21" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="P21" s="54" t="s">
         <v>173</v>
       </c>
       <c r="Q21" s="1"/>
@@ -4559,22 +4559,22 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -4594,22 +4594,22 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -4629,22 +4629,22 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -4664,22 +4664,22 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -4699,22 +4699,22 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -4734,22 +4734,22 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -4769,22 +4769,22 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -4804,84 +4804,67 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="M30" s="64" t="s">
+      <c r="M30" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="65"/>
+      <c r="N30" s="67"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="M31" s="66" t="s">
+      <c r="M31" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="N31" s="67"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="M32" s="66" t="s">
+      <c r="M32" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="N32" s="67"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="13:14">
-      <c r="M33" s="66" t="s">
+      <c r="M33" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="N33" s="67"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="13:14">
-      <c r="M34" s="66" t="s">
+      <c r="M34" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="N34" s="67"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="13:14">
-      <c r="M35" s="66" t="s">
+      <c r="M35" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="N35" s="67"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="13:14">
-      <c r="M36" s="66" t="s">
+      <c r="M36" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="N36" s="67"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="37" spans="13:14">
-      <c r="M37" s="66" t="s">
+      <c r="M37" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="67"/>
+      <c r="N37" s="63"/>
     </row>
     <row r="38" spans="13:14">
-      <c r="M38" s="66" t="s">
+      <c r="M38" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="N38" s="67"/>
+      <c r="N38" s="63"/>
     </row>
     <row r="39" spans="13:14">
-      <c r="M39" s="68" t="s">
+      <c r="M39" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="N39" s="69"/>
+      <c r="N39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B18:F20"/>
-    <mergeCell ref="D21:D28"/>
     <mergeCell ref="G18:N20"/>
     <mergeCell ref="F21:F28"/>
     <mergeCell ref="O21:O28"/>
@@ -4895,6 +4878,23 @@
     <mergeCell ref="N21:N28"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="J21:J28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="B18:F20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4935,19 +4935,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3" t="s">
         <v>174</v>
       </c>
@@ -5254,126 +5254,126 @@
     </row>
     <row r="18" spans="1:7" ht="11.25" customHeight="1">
       <c r="A18" s="11"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="56" t="s">
         <v>530</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" ht="11.25" customHeight="1">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="55"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="57"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="73" t="s">
         <v>531</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="73" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="73" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="101.25">
       <c r="D27" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B18:C20"/>
     <mergeCell ref="E18:G20"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="F21:F27"/>
     <mergeCell ref="G21:G27"/>
     <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A21:A26"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5406,19 +5406,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3"/>
     </row>
     <row r="6" spans="1:16">
@@ -5689,7 +5689,7 @@
       <c r="C16" s="95"/>
     </row>
     <row r="17" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="54" t="s">
         <v>336</v>
       </c>
       <c r="B17" s="84" t="s">
@@ -5698,135 +5698,135 @@
       <c r="C17" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="N17" s="58" t="s">
+      <c r="N17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="P17" s="58" t="s">
+      <c r="P17" s="54" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="58"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="58"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="58"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="58"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="58"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="25" spans="1:16">
       <c r="D25" s="46" t="s">
@@ -5836,6 +5836,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="F17:F22"/>
@@ -5845,16 +5855,6 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="A14:C16"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="P17:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5868,7 +5868,7 @@
   </sheetPr>
   <dimension ref="A2:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA2" workbookViewId="0">
       <selection activeCell="F20" sqref="F20:AB22"/>
     </sheetView>
   </sheetViews>
@@ -5933,17 +5933,17 @@
       <c r="E4" s="29"/>
       <c r="F4" s="1"/>
       <c r="H4" s="29"/>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="96" t="s">
         <v>388</v>
       </c>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="L5" s="101"/>
+      <c r="L5" s="96"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
     </row>
     <row r="7" spans="1:31" s="12" customFormat="1">
       <c r="A7" s="13" t="s">
@@ -6895,359 +6895,359 @@
     <row r="20" spans="1:31" ht="11.25" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="97" t="s">
         <v>386</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="63" t="s">
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="AD20" s="52" t="s">
+      <c r="AD20" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="AE20" s="53"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="55"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="59"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="54" t="s">
         <v>87</v>
       </c>
       <c r="I23" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="106" t="s">
         <v>414</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="N23" s="58" t="s">
+      <c r="N23" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O23" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="P23" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="Q23" s="58" t="s">
+      <c r="Q23" s="54" t="s">
         <v>215</v>
       </c>
       <c r="R23" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="S23" s="58" t="s">
+      <c r="S23" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="T23" s="58" t="s">
+      <c r="T23" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="U23" s="58" t="s">
+      <c r="U23" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="W23" s="58" t="s">
+      <c r="W23" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="X23" s="58" t="s">
+      <c r="X23" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="Y23" s="58" t="s">
+      <c r="Y23" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="Z23" s="58" t="s">
+      <c r="Z23" s="54" t="s">
         <v>99</v>
       </c>
       <c r="AA23" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="AB23" s="98" t="s">
+      <c r="AB23" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="AC23" s="97" t="s">
+      <c r="AC23" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" s="58" t="s">
+      <c r="AD23" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AE23" s="58" t="s">
+      <c r="AE23" s="54" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="85"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
       <c r="R24" s="85"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
       <c r="AA24" s="85"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="85"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
       <c r="R25" s="85"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
       <c r="AA25" s="85"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="85"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
       <c r="R26" s="85"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
       <c r="AA26" s="85"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="85"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
       <c r="R27" s="85"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
       <c r="AA27" s="85"/>
-      <c r="AB27" s="99"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
+      <c r="AB27" s="109"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="86"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
       <c r="R28" s="86"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
       <c r="AA28" s="86"/>
-      <c r="AB28" s="99"/>
+      <c r="AB28" s="109"/>
       <c r="AC28" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
     </row>
     <row r="29" spans="1:31">
       <c r="D29" s="1"/>
@@ -7263,7 +7263,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="99"/>
+      <c r="AB29" s="109"/>
       <c r="AC29" s="34" t="s">
         <v>156</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="AA30" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AB30" s="99"/>
+      <c r="AB30" s="109"/>
       <c r="AC30" s="35" t="s">
         <v>157</v>
       </c>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="S31" s="85"/>
       <c r="T31" s="85"/>
-      <c r="AB31" s="99"/>
+      <c r="AB31" s="109"/>
       <c r="AC31" s="35" t="s">
         <v>158</v>
       </c>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="S32" s="85"/>
       <c r="T32" s="85"/>
-      <c r="AB32" s="99"/>
+      <c r="AB32" s="109"/>
       <c r="AC32" s="35" t="s">
         <v>159</v>
       </c>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="S33" s="85"/>
       <c r="T33" s="85"/>
-      <c r="AB33" s="99"/>
+      <c r="AB33" s="109"/>
       <c r="AC33" s="35" t="s">
         <v>160</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="S34" s="85"/>
       <c r="T34" s="85"/>
-      <c r="AB34" s="99"/>
+      <c r="AB34" s="109"/>
       <c r="AC34" s="35" t="s">
         <v>161</v>
       </c>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="S35" s="85"/>
       <c r="T35" s="85"/>
-      <c r="AB35" s="99"/>
+      <c r="AB35" s="109"/>
       <c r="AC35" s="35" t="s">
         <v>162</v>
       </c>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="S36" s="86"/>
       <c r="T36" s="86"/>
-      <c r="AB36" s="99"/>
+      <c r="AB36" s="109"/>
       <c r="AC36" s="35" t="s">
         <v>163</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="R37" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="AB37" s="99"/>
+      <c r="AB37" s="109"/>
       <c r="AC37" s="36" t="s">
         <v>164</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="R38" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="AB38" s="100"/>
+      <c r="AB38" s="110"/>
     </row>
     <row r="39" spans="9:29">
       <c r="I39" s="31" t="s">
@@ -7426,6 +7426,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AD20:AE22"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="W23:W28"/>
+    <mergeCell ref="AC23:AC26"/>
+    <mergeCell ref="AB23:AB38"/>
+    <mergeCell ref="AA23:AA28"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AE23:AE28"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="Z23:Z28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="O23:O28"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="S30:S36"/>
     <mergeCell ref="T30:T36"/>
@@ -7440,30 +7462,8 @@
     <mergeCell ref="S23:S28"/>
     <mergeCell ref="T23:T28"/>
     <mergeCell ref="X23:X28"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
     <mergeCell ref="P23:P28"/>
     <mergeCell ref="J23:J28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="O23:O28"/>
-    <mergeCell ref="AD20:AE22"/>
-    <mergeCell ref="U23:U28"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="W23:W28"/>
-    <mergeCell ref="AC23:AC26"/>
-    <mergeCell ref="AB23:AB38"/>
-    <mergeCell ref="AA23:AA28"/>
-    <mergeCell ref="AD23:AD28"/>
-    <mergeCell ref="AE23:AE28"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="Z23:Z28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7516,32 +7516,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="21">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="1"/>
       <c r="L4" s="1"/>
       <c r="T4" s="17"/>
@@ -8252,81 +8252,81 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="111" t="s">
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="139" t="s">
         <v>255</v>
       </c>
-      <c r="S17" s="127" t="s">
+      <c r="S17" s="112" t="s">
         <v>460</v>
       </c>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="129"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="114"/>
       <c r="AB17" s="37"/>
     </row>
     <row r="18" spans="1:28" ht="11.25" customHeight="1">
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="117"/>
       <c r="AB18" s="38"/>
     </row>
     <row r="19" spans="1:28" ht="18" customHeight="1">
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="135"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="120"/>
       <c r="AB19" s="39"/>
     </row>
     <row r="20" spans="1:28" ht="11.25" customHeight="1">
@@ -8357,16 +8357,16 @@
       <c r="I20" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="58" t="s">
+      <c r="L20" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="M20" s="83" t="s">
+      <c r="M20" s="73" t="s">
         <v>114</v>
       </c>
       <c r="N20" s="84" t="s">
@@ -8378,13 +8378,13 @@
       <c r="P20" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="Q20" s="137" t="s">
+      <c r="Q20" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="98" t="s">
+      <c r="R20" s="108" t="s">
         <v>459</v>
       </c>
-      <c r="S20" s="140" t="s">
+      <c r="S20" s="127" t="s">
         <v>90</v>
       </c>
       <c r="T20" s="84" t="s">
@@ -8402,10 +8402,10 @@
       <c r="X20" s="84" t="s">
         <v>464</v>
       </c>
-      <c r="Y20" s="116" t="s">
+      <c r="Y20" s="142" t="s">
         <v>243</v>
       </c>
-      <c r="Z20" s="116" t="s">
+      <c r="Z20" s="142" t="s">
         <v>244</v>
       </c>
       <c r="AA20" s="84" t="s">
@@ -8425,24 +8425,24 @@
       <c r="G21" s="85"/>
       <c r="H21" s="85"/>
       <c r="I21" s="85"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="83"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="73"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
       <c r="P21" s="85"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
       <c r="AB21" s="85"/>
     </row>
     <row r="22" spans="1:28">
@@ -8455,24 +8455,24 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
       <c r="I22" s="85"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="83"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="73"/>
       <c r="N22" s="85"/>
       <c r="O22" s="85"/>
       <c r="P22" s="85"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="114"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="122"/>
       <c r="AB22" s="85"/>
     </row>
     <row r="23" spans="1:28">
@@ -8485,54 +8485,54 @@
       <c r="G23" s="86"/>
       <c r="H23" s="86"/>
       <c r="I23" s="86"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="83"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="73"/>
       <c r="N23" s="86"/>
       <c r="O23" s="86"/>
       <c r="P23" s="86"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="114"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="122"/>
       <c r="AB23" s="86"/>
     </row>
     <row r="24" spans="1:28">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="M24" s="83"/>
+      <c r="M24" s="73"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="99"/>
+      <c r="R24" s="109"/>
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="114"/>
-      <c r="Z24" s="114"/>
-      <c r="AA24" s="114"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="M25" s="83"/>
+      <c r="M25" s="73"/>
       <c r="N25" s="1"/>
       <c r="O25" s="15" t="s">
         <v>85</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="R25" s="99"/>
+      <c r="R25" s="109"/>
       <c r="S25" s="27" t="s">
         <v>85</v>
       </c>
@@ -8540,9 +8540,9 @@
       <c r="X25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="123"/>
+      <c r="AA25" s="123"/>
       <c r="AB25" s="15" t="s">
         <v>115</v>
       </c>
@@ -8551,13 +8551,13 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="M26" s="83"/>
+      <c r="M26" s="73"/>
       <c r="N26" s="1"/>
       <c r="O26" s="22" t="s">
         <v>111</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="R26" s="99"/>
+      <c r="R26" s="109"/>
       <c r="S26" s="40" t="s">
         <v>91</v>
       </c>
@@ -8573,7 +8573,7 @@
       <c r="E27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="R27" s="99"/>
+      <c r="R27" s="109"/>
       <c r="U27" s="2"/>
       <c r="X27" s="1"/>
     </row>
@@ -8581,17 +8581,17 @@
       <c r="E28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="R28" s="99"/>
+      <c r="R28" s="109"/>
     </row>
     <row r="29" spans="1:28">
       <c r="Q29" s="2"/>
-      <c r="R29" s="99"/>
+      <c r="R29" s="109"/>
       <c r="T29" s="1"/>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:28">
       <c r="Q30" s="2"/>
-      <c r="R30" s="100"/>
+      <c r="R30" s="110"/>
       <c r="T30" s="1"/>
       <c r="X30" s="1"/>
     </row>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="32" spans="1:28">
       <c r="Q32" s="2"/>
-      <c r="R32" s="126" t="s">
+      <c r="R32" s="111" t="s">
         <v>256</v>
       </c>
       <c r="T32" s="1"/>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="33" spans="17:24">
       <c r="Q33" s="2"/>
-      <c r="R33" s="126"/>
+      <c r="R33" s="111"/>
       <c r="T33" s="1"/>
       <c r="X33" s="1"/>
     </row>
@@ -8761,6 +8761,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="AB20:AB23"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="Y20:Y25"/>
+    <mergeCell ref="Z20:Z25"/>
+    <mergeCell ref="AA20:AA25"/>
+    <mergeCell ref="R20:R30"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="G17:Q19"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S17:AA19"/>
     <mergeCell ref="D20:D23"/>
@@ -8777,25 +8796,6 @@
     <mergeCell ref="S20:S23"/>
     <mergeCell ref="O20:O23"/>
     <mergeCell ref="N20:N23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="G17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="AB20:AB23"/>
-    <mergeCell ref="U20:U23"/>
-    <mergeCell ref="V20:V23"/>
-    <mergeCell ref="Y20:Y25"/>
-    <mergeCell ref="Z20:Z25"/>
-    <mergeCell ref="AA20:AA25"/>
-    <mergeCell ref="R20:R30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9424,191 +9424,191 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="69" t="s">
         <v>475</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
     </row>
     <row r="20" spans="1:19" ht="11.25" customHeight="1">
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
     </row>
     <row r="21" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="54" t="s">
         <v>521</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="54" t="s">
         <v>524</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="N21" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="P21" s="54" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
     </row>
     <row r="27" spans="1:19" ht="112.5">
       <c r="H27" s="14"/>
@@ -9640,14 +9640,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="D18:P20"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="P21:P26"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="M21:M26"/>
     <mergeCell ref="N21:N26"/>
@@ -9657,6 +9649,14 @@
     <mergeCell ref="E21:E26"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="H21:H26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="D18:P20"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="P21:P26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9670,7 +9670,7 @@
   </sheetPr>
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -9964,167 +9964,167 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="149" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="143" t="s">
+      <c r="D12" s="150"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="145" t="s">
         <v>475</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143" t="s">
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145" t="s">
         <v>477</v>
       </c>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="144" t="s">
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="146" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="145"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="147"/>
     </row>
     <row r="14" spans="1:13" ht="11.25" customHeight="1">
-      <c r="C14" s="153"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="146"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="148"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="M15" s="156" t="s">
+      <c r="M15" s="158" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="157"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="159"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="157"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="159"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="157"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="159"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="157"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="159"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="157"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="159"/>
     </row>
     <row r="21" spans="1:13" ht="112.5">
       <c r="F21" s="14"/>
@@ -10132,10 +10132,10 @@
       <c r="H21" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="J21" s="158" t="s">
+      <c r="J21" s="143" t="s">
         <v>478</v>
       </c>
-      <c r="K21" s="159"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="45" t="s">
         <v>480</v>
       </c>
@@ -10163,11 +10163,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="I12:L14"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="J15:J20"/>
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
@@ -10181,6 +10176,11 @@
     <mergeCell ref="K15:K20"/>
     <mergeCell ref="L15:L20"/>
     <mergeCell ref="M15:M20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="I12:L14"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="J15:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
